--- a/J2EE/Web-Service购物系统/项目结构图.xlsx
+++ b/J2EE/Web-Service购物系统/项目结构图.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +55,1094 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="1400175" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login.jsp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="342900"/>
+          <a:ext cx="1400175" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login.jsp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="333375"/>
+          <a:ext cx="1190625" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GoHall.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="747713"/>
+          <a:ext cx="514350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="747713"/>
+          <a:ext cx="504825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="流程图: 磁盘 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="3314700"/>
+          <a:ext cx="923925" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>db</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>users</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>book</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="1885950"/>
+          <a:ext cx="1133475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Users(Bean).java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="1895475"/>
+          <a:ext cx="1228725" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UsersService.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="1895475"/>
+          <a:ext cx="1228725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BookService.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="1885950"/>
+          <a:ext cx="1057275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Book(Bean).java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="1895475"/>
+          <a:ext cx="1133475" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DbUtils.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="1885950"/>
+          <a:ext cx="1133475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SqlHelper.java</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5805488" y="1162050"/>
+          <a:ext cx="133350" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086351" y="1666874"/>
+          <a:ext cx="1295399" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>验证用户合法性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187587</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="5"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6359787" y="1040693"/>
+          <a:ext cx="2493701" cy="1369132"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="1714500"/>
+          <a:ext cx="2114550" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>如果合法为下一页面准备数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +1184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +1219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1427,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/J2EE/Web-Service购物系统/项目结构图.xlsx
+++ b/J2EE/Web-Service购物系统/项目结构图.xlsx
@@ -1136,6 +1136,571 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="342900"/>
+          <a:ext cx="1400175" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>myCart.jsp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="椭圆 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="333375"/>
+          <a:ext cx="1466850" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GoMyCart.java</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理用户购物</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="747713"/>
+          <a:ext cx="209550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="6"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="747713"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="2400300"/>
+          <a:ext cx="1228725" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MyCart.java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（购物车）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="4"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="1162050"/>
+          <a:ext cx="976313" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="2247900"/>
+          <a:ext cx="2266950" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HashMap hashMap=new HaspMap();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>存放书号和书的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bean</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="2647950"/>
+          <a:ext cx="495300" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="4"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8853488" y="1162050"/>
+          <a:ext cx="528637" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1430,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/J2EE/Web-Service购物系统/项目结构图.xlsx
+++ b/J2EE/Web-Service购物系统/项目结构图.xlsx
@@ -76,13 +76,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -152,13 +152,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -228,13 +228,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -286,13 +286,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -336,13 +336,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -386,13 +386,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -458,13 +458,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -534,13 +534,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -610,13 +610,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -686,13 +686,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -762,13 +762,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -838,13 +838,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -914,13 +914,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -964,13 +964,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1028,13 +1028,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>187587</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>11993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1078,13 +1078,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1140,16 +1140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1158,7 +1158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="342900"/>
+          <a:off x="11791950" y="866775"/>
           <a:ext cx="1400175" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1218,13 +1218,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1282,13 +1282,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1331,64 +1331,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="6"/>
-          <a:endCxn id="21" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10115550" y="747713"/>
-          <a:ext cx="161925" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1461,13 +1411,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1511,13 +1461,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1607,13 +1557,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1657,13 +1607,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1701,6 +1651,246 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299535</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="7"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9900735" y="969082"/>
+          <a:ext cx="1891215" cy="302506"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318586</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9919786" y="1271588"/>
+          <a:ext cx="1872164" cy="273930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文本框 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="1457325"/>
+          <a:ext cx="1247775" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>购物车商品的删除、更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="95250"/>
+          <a:ext cx="4095750" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制器管理原则：同一类事物（业务逻辑）让一个控制器完成。有利于减少控制器数量，方便维护</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1996,7 +2186,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/J2EE/Web-Service购物系统/项目结构图.xlsx
+++ b/J2EE/Web-Service购物系统/项目结构图.xlsx
@@ -76,13 +76,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -152,13 +152,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -228,13 +228,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -286,13 +286,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -336,13 +336,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -386,13 +386,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -458,13 +458,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -534,13 +534,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -610,13 +610,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -686,13 +686,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -762,13 +762,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -838,13 +838,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -914,13 +914,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -964,13 +964,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1028,13 +1028,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>187587</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>11993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1078,13 +1078,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1142,13 +1142,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1204,11 +1204,16 @@
             </a:rPr>
             <a:t>myCart.jsp</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>购物车详情页面</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1218,13 +1223,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1282,13 +1287,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1332,13 +1337,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1411,13 +1416,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1460,15 +1465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1477,7 +1482,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11468100" y="2247900"/>
+          <a:off x="10972800" y="3657600"/>
           <a:ext cx="2266950" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1557,14 +1562,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1576,8 +1581,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10972800" y="2647950"/>
-          <a:ext cx="495300" cy="4763"/>
+          <a:off x="10972800" y="3162300"/>
+          <a:ext cx="0" cy="900113"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1607,13 +1612,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1657,13 +1662,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>299535</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>111832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1707,13 +1712,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>318586</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1756,13 +1761,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1827,13 +1832,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1891,6 +1896,513 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15668625" y="1038225"/>
+          <a:ext cx="1619250" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>myOrder.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>订单详情页面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>该页面不可修改，可以点击返回购物车修改</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="椭圆 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13696949" y="1028700"/>
+          <a:ext cx="1647825" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GoMyOrder.java</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理订单页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13192125" y="1443038"/>
+          <a:ext cx="504824" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="6"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15344774" y="1443038"/>
+          <a:ext cx="323851" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="文本框 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="1038225"/>
+          <a:ext cx="1619250" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>orderFinish.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>确认订单完成页面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="椭圆 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17726024" y="1028700"/>
+          <a:ext cx="1685926" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SubmitOrder.java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理订单页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="54" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17287875" y="1443038"/>
+          <a:ext cx="438149" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="6"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19411950" y="1443038"/>
+          <a:ext cx="476250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2185,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
